--- a/Test/Lawnmower/T2/Sensors_data_1000032.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000032.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9207091862376104</v>
+        <v>0.8893537566196663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003393590002994866</v>
+        <v>0.004735579918875099</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0118036960759218</v>
+        <v>0.02316764856578829</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9948468070179014</v>
+        <v>0.9919100094394935</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000223838236511689</v>
+        <v>0.000351403339007603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002265746187207207</v>
+        <v>0.00147076468164975</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,18 +525,93 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9655026330350609</v>
+        <v>0.9584264305177144</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001153851658767712</v>
+        <v>0.001390533142914452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.347836458682947</v>
+        <v>0.3136456588924539</v>
       </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1015200636273115</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03097606186429748</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.07217615366744962</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9307156059671886</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002978531426137234</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0851028115375918</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9214456210625639</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.005961068257962614</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.430440862070137</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
